--- a/OtherResources/Building and Occupancy Permit/YEAR 2014/ANNUAL REPORT/YEAR 2014.xlsx
+++ b/OtherResources/Building and Occupancy Permit/YEAR 2014/ANNUAL REPORT/YEAR 2014.xlsx
@@ -5,18 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Building and Occupancy Permit\YEAR 2014\ANNUAL REPORT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronal\Documents\BPA-NMH\OtherResources\Building and Occupancy Permit\YEAR 2014\ANNUAL REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D51273-A383-47AD-B08C-5266C02C5B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E27B4-F6AF-448A-8DDD-5031E06AC76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUILDING PERMIT" sheetId="1" r:id="rId1"/>
     <sheet name="OCCUPANCY CERTIFICATE" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3152,8 +3165,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -3478,22 +3491,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3829,31 +3842,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="14" style="24" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="9"/>
-    <col min="15" max="15" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="9"/>
+    <col min="5" max="5" width="15.5546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="36" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="39" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="9"/>
+    <col min="15" max="15" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>1039</v>
       </c>
@@ -3870,11 +3883,11 @@
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H2" s="35"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
         <v>0</v>
@@ -3913,7 +3926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
@@ -3930,7 +3943,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -3971,7 +3984,7 @@
         <v>41641</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>21</v>
       </c>
@@ -4012,7 +4025,7 @@
         <v>41647</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>28</v>
       </c>
@@ -4053,7 +4066,7 @@
         <v>41649</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
@@ -4094,7 +4107,7 @@
         <v>41653</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>42</v>
       </c>
@@ -4133,7 +4146,7 @@
         <v>41655</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>49</v>
       </c>
@@ -4174,7 +4187,7 @@
         <v>41666</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>56</v>
       </c>
@@ -4215,7 +4228,7 @@
         <v>41666</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>63</v>
       </c>
@@ -4256,7 +4269,7 @@
         <v>41669</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>70</v>
       </c>
@@ -4297,7 +4310,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>77</v>
       </c>
@@ -4338,7 +4351,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>83</v>
       </c>
@@ -4379,7 +4392,7 @@
         <v>41674</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>90</v>
       </c>
@@ -4420,7 +4433,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>96</v>
       </c>
@@ -4461,7 +4474,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>103</v>
       </c>
@@ -4502,7 +4515,7 @@
         <v>41677</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>134</v>
       </c>
@@ -4543,7 +4556,7 @@
         <v>41681</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>137</v>
       </c>
@@ -4584,7 +4597,7 @@
         <v>41681</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>138</v>
       </c>
@@ -4625,7 +4638,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>139</v>
       </c>
@@ -4666,7 +4679,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>140</v>
       </c>
@@ -4707,7 +4720,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>141</v>
       </c>
@@ -4748,7 +4761,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>142</v>
       </c>
@@ -4789,7 +4802,7 @@
         <v>41687</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>143</v>
       </c>
@@ -4830,7 +4843,7 @@
         <v>41688</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>188</v>
       </c>
@@ -4871,7 +4884,7 @@
         <v>41689</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>195</v>
       </c>
@@ -4912,7 +4925,7 @@
         <v>41689</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>202</v>
       </c>
@@ -4953,7 +4966,7 @@
         <v>41690</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>209</v>
       </c>
@@ -4992,7 +5005,7 @@
         <v>41691</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>216</v>
       </c>
@@ -5033,7 +5046,7 @@
         <v>41689</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>223</v>
       </c>
@@ -5074,7 +5087,7 @@
         <v>41694</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>230</v>
       </c>
@@ -5115,7 +5128,7 @@
         <v>41695</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>237</v>
       </c>
@@ -5156,7 +5169,7 @@
         <v>41695</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>244</v>
       </c>
@@ -5197,7 +5210,7 @@
         <v>41697</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>251</v>
       </c>
@@ -5238,7 +5251,7 @@
         <v>41697</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>281</v>
       </c>
@@ -5279,7 +5292,7 @@
         <v>41702</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>288</v>
       </c>
@@ -5320,7 +5333,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>296</v>
       </c>
@@ -5361,7 +5374,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>303</v>
       </c>
@@ -5402,7 +5415,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>310</v>
       </c>
@@ -5443,7 +5456,7 @@
         <v>41708</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>316</v>
       </c>
@@ -5484,7 +5497,7 @@
         <v>41708</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>323</v>
       </c>
@@ -5525,7 +5538,7 @@
         <v>41709</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>329</v>
       </c>
@@ -5566,7 +5579,7 @@
         <v>41709</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
         <v>335</v>
       </c>
@@ -5607,7 +5620,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>341</v>
       </c>
@@ -5648,7 +5661,7 @@
         <v>41716</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
         <v>349</v>
       </c>
@@ -5689,7 +5702,7 @@
         <v>41716</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>355</v>
       </c>
@@ -5730,7 +5743,7 @@
         <v>41723</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
         <v>362</v>
       </c>
@@ -5771,7 +5784,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>369</v>
       </c>
@@ -5812,7 +5825,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>379</v>
       </c>
@@ -5851,7 +5864,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>385</v>
       </c>
@@ -5890,7 +5903,7 @@
         <v>41752</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
         <v>391</v>
       </c>
@@ -5929,7 +5942,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>397</v>
       </c>
@@ -5968,7 +5981,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
         <v>403</v>
       </c>
@@ -6007,7 +6020,7 @@
         <v>41758</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>440</v>
       </c>
@@ -6048,7 +6061,7 @@
         <v>41766</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>447</v>
       </c>
@@ -6089,7 +6102,7 @@
         <v>41766</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>452</v>
       </c>
@@ -6128,7 +6141,7 @@
         <v>41766</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>460</v>
       </c>
@@ -6167,7 +6180,7 @@
         <v>41767</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
         <v>468</v>
       </c>
@@ -6208,7 +6221,7 @@
         <v>41767</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
         <v>473</v>
       </c>
@@ -6249,7 +6262,7 @@
         <v>41771</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
         <v>479</v>
       </c>
@@ -6290,7 +6303,7 @@
         <v>41771</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>486</v>
       </c>
@@ -6331,7 +6344,7 @@
         <v>41772</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
         <v>491</v>
       </c>
@@ -6372,7 +6385,7 @@
         <v>41780</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
         <v>497</v>
       </c>
@@ -6413,7 +6426,7 @@
         <v>41781</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
         <v>503</v>
       </c>
@@ -6454,7 +6467,7 @@
         <v>41785</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
         <v>510</v>
       </c>
@@ -6493,7 +6506,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>518</v>
       </c>
@@ -6532,7 +6545,7 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
         <v>523</v>
       </c>
@@ -6573,7 +6586,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="23" t="s">
         <v>547</v>
       </c>
@@ -6612,7 +6625,7 @@
         <v>41801</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
         <v>555</v>
       </c>
@@ -6653,7 +6666,7 @@
         <v>41807</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="23" t="s">
         <v>561</v>
       </c>
@@ -6694,7 +6707,7 @@
         <v>41808</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>567</v>
       </c>
@@ -6735,7 +6748,7 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
         <v>573</v>
       </c>
@@ -6774,7 +6787,7 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>579</v>
       </c>
@@ -6815,7 +6828,7 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>587</v>
       </c>
@@ -6854,7 +6867,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
         <v>593</v>
       </c>
@@ -6893,7 +6906,7 @@
         <v>41814</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>600</v>
       </c>
@@ -6932,7 +6945,7 @@
         <v>41814</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
         <v>609</v>
       </c>
@@ -6971,7 +6984,7 @@
         <v>41817</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
         <v>610</v>
       </c>
@@ -7012,7 +7025,7 @@
         <v>41822</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
         <v>611</v>
       </c>
@@ -7051,7 +7064,7 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>612</v>
       </c>
@@ -7090,7 +7103,7 @@
         <v>41827</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="23" t="s">
         <v>613</v>
       </c>
@@ -7131,7 +7144,7 @@
         <v>41827</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
         <v>614</v>
       </c>
@@ -7172,7 +7185,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="23" t="s">
         <v>615</v>
       </c>
@@ -7213,7 +7226,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="s">
         <v>616</v>
       </c>
@@ -7254,7 +7267,7 @@
         <v>41830</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="23" t="s">
         <v>617</v>
       </c>
@@ -7295,7 +7308,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="s">
         <v>618</v>
       </c>
@@ -7336,7 +7349,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="23" t="s">
         <v>619</v>
       </c>
@@ -7375,7 +7388,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="23" t="s">
         <v>678</v>
       </c>
@@ -7416,7 +7429,7 @@
         <v>41857</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="s">
         <v>679</v>
       </c>
@@ -7457,7 +7470,7 @@
         <v>41862</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="s">
         <v>680</v>
       </c>
@@ -7498,7 +7511,7 @@
         <v>41864</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="s">
         <v>681</v>
       </c>
@@ -7539,7 +7552,7 @@
         <v>41864</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="23" t="s">
         <v>682</v>
       </c>
@@ -7580,7 +7593,7 @@
         <v>41866</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="23" t="s">
         <v>683</v>
       </c>
@@ -7619,7 +7632,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
         <v>684</v>
       </c>
@@ -7658,7 +7671,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="23" t="s">
         <v>685</v>
       </c>
@@ -7699,7 +7712,7 @@
         <v>41870</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="23" t="s">
         <v>723</v>
       </c>
@@ -7740,7 +7753,7 @@
         <v>41870</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="23" t="s">
         <v>724</v>
       </c>
@@ -7781,7 +7794,7 @@
         <v>41870</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="s">
         <v>725</v>
       </c>
@@ -7822,7 +7835,7 @@
         <v>41876</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="s">
         <v>726</v>
       </c>
@@ -7863,7 +7876,7 @@
         <v>41878</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>727</v>
       </c>
@@ -7904,7 +7917,7 @@
         <v>41878</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
         <v>728</v>
       </c>
@@ -7945,7 +7958,7 @@
         <v>41878</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
         <v>729</v>
       </c>
@@ -7986,7 +7999,7 @@
         <v>41880</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
         <v>767</v>
       </c>
@@ -8027,7 +8040,7 @@
         <v>41880</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="s">
         <v>772</v>
       </c>
@@ -8068,7 +8081,7 @@
         <v>41886</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="s">
         <v>778</v>
       </c>
@@ -8109,7 +8122,7 @@
         <v>41891</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="s">
         <v>785</v>
       </c>
@@ -8150,7 +8163,7 @@
         <v>41893</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
         <v>790</v>
       </c>
@@ -8191,7 +8204,7 @@
         <v>41897</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>795</v>
       </c>
@@ -8232,7 +8245,7 @@
         <v>41897</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>799</v>
       </c>
@@ -8273,7 +8286,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="23" t="s">
         <v>814</v>
       </c>
@@ -8314,7 +8327,7 @@
         <v>41904</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="s">
         <v>820</v>
       </c>
@@ -8355,7 +8368,7 @@
         <v>41907</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="s">
         <v>825</v>
       </c>
@@ -8394,7 +8407,7 @@
         <v>41907</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="s">
         <v>831</v>
       </c>
@@ -8435,7 +8448,7 @@
         <v>41907</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="s">
         <v>836</v>
       </c>
@@ -8476,7 +8489,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="s">
         <v>841</v>
       </c>
@@ -8517,7 +8530,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="s">
         <v>847</v>
       </c>
@@ -8558,7 +8571,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="23" t="s">
         <v>853</v>
       </c>
@@ -8599,7 +8612,7 @@
         <v>41919</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="s">
         <v>858</v>
       </c>
@@ -8640,7 +8653,7 @@
         <v>41920</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="23" t="s">
         <v>864</v>
       </c>
@@ -8681,7 +8694,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="23" t="s">
         <v>870</v>
       </c>
@@ -8722,7 +8735,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="23" t="s">
         <v>875</v>
       </c>
@@ -8763,7 +8776,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="23" t="s">
         <v>882</v>
       </c>
@@ -8804,7 +8817,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="23" t="s">
         <v>897</v>
       </c>
@@ -8845,7 +8858,7 @@
         <v>41926</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="s">
         <v>898</v>
       </c>
@@ -8886,7 +8899,7 @@
         <v>41927</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="23" t="s">
         <v>899</v>
       </c>
@@ -8925,7 +8938,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
         <v>900</v>
       </c>
@@ -8966,7 +8979,7 @@
         <v>41941</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
         <v>901</v>
       </c>
@@ -9005,7 +9018,7 @@
         <v>41946</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="23" t="s">
         <v>902</v>
       </c>
@@ -9046,7 +9059,7 @@
         <v>41949</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="23" t="s">
         <v>903</v>
       </c>
@@ -9087,7 +9100,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="23" t="s">
         <v>904</v>
       </c>
@@ -9126,7 +9139,7 @@
         <v>41953</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="23" t="s">
         <v>905</v>
       </c>
@@ -9167,7 +9180,7 @@
         <v>41953</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="23" t="s">
         <v>906</v>
       </c>
@@ -9208,7 +9221,7 @@
         <v>41955</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="23" t="s">
         <v>907</v>
       </c>
@@ -9249,7 +9262,7 @@
         <v>41955</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="23" t="s">
         <v>908</v>
       </c>
@@ -9288,7 +9301,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="23" t="s">
         <v>909</v>
       </c>
@@ -9329,7 +9342,7 @@
         <v>41960</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="s">
         <v>910</v>
       </c>
@@ -9370,7 +9383,7 @@
         <v>41961</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="23" t="s">
         <v>911</v>
       </c>
@@ -9411,7 +9424,7 @@
         <v>41962</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="23" t="s">
         <v>912</v>
       </c>
@@ -9450,7 +9463,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="23" t="s">
         <v>913</v>
       </c>
@@ -9491,7 +9504,7 @@
         <v>41964</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="23" t="s">
         <v>914</v>
       </c>
@@ -9532,7 +9545,7 @@
         <v>41968</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="23" t="s">
         <v>915</v>
       </c>
@@ -9573,7 +9586,7 @@
         <v>41970</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="s">
         <v>916</v>
       </c>
@@ -9614,7 +9627,7 @@
         <v>41971</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="23" t="s">
         <v>917</v>
       </c>
@@ -9655,7 +9668,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="23" t="s">
         <v>918</v>
       </c>
@@ -9694,7 +9707,7 @@
         <v>42350</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>919</v>
       </c>
@@ -9735,7 +9748,7 @@
         <v>42356</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="43" t="s">
         <v>13</v>
       </c>
@@ -9765,28 +9778,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="28" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="24.85546875" style="1"/>
+    <col min="9" max="9" width="10.33203125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>1040</v>
       </c>
@@ -9802,7 +9815,7 @@
       <c r="K1" s="50"/>
       <c r="L1" s="50"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>0</v>
@@ -9838,7 +9851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -9854,7 +9867,7 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -9893,7 +9906,7 @@
         <v>41662</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -9932,7 +9945,7 @@
         <v>41666</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -9971,7 +9984,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -10010,7 +10023,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -10049,7 +10062,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -10088,7 +10101,7 @@
         <v>41674</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -10127,7 +10140,7 @@
         <v>41677</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -10166,7 +10179,7 @@
         <v>41681</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -10205,7 +10218,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -10244,7 +10257,7 @@
         <v>41691</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -10283,7 +10296,7 @@
         <v>41691</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -10322,7 +10335,7 @@
         <v>41691</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -10361,7 +10374,7 @@
         <v>41691</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -10400,7 +10413,7 @@
         <v>41698</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -10439,7 +10452,7 @@
         <v>41698</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -10478,7 +10491,7 @@
         <v>41702</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -10517,7 +10530,7 @@
         <v>41702</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -10556,7 +10569,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -10595,7 +10608,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -10634,7 +10647,7 @@
         <v>41708</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -10673,7 +10686,7 @@
         <v>41709</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -10712,7 +10725,7 @@
         <v>41716</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -10751,7 +10764,7 @@
         <v>41717</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -10790,7 +10803,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -10829,7 +10842,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -10868,7 +10881,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -10907,7 +10920,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -10946,7 +10959,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -10985,7 +10998,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -11024,7 +11037,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -11063,7 +11076,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -11102,7 +11115,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -11141,7 +11154,7 @@
         <v>41744</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -11180,7 +11193,7 @@
         <v>41752</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -11219,7 +11232,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -11258,7 +11271,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -11297,7 +11310,7 @@
         <v>41767</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -11336,7 +11349,7 @@
         <v>41780</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -11375,7 +11388,7 @@
         <v>41780</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -11414,7 +11427,7 @@
         <v>41780</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -11453,7 +11466,7 @@
         <v>41780</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -11492,7 +11505,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -11531,7 +11544,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -11570,7 +11583,7 @@
         <v>41785</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -11609,7 +11622,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -11648,7 +11661,7 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -11687,7 +11700,7 @@
         <v>41806</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="42" t="s">
         <v>385</v>
       </c>
@@ -11726,7 +11739,7 @@
         <v>41817</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="42" t="s">
         <v>391</v>
       </c>
@@ -11765,7 +11778,7 @@
         <v>41817</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="42" t="s">
         <v>397</v>
       </c>
@@ -11804,7 +11817,7 @@
         <v>41817</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="42" t="s">
         <v>403</v>
       </c>
@@ -11843,7 +11856,7 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
         <v>440</v>
       </c>
@@ -11882,7 +11895,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>447</v>
       </c>
@@ -11921,7 +11934,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>452</v>
       </c>
@@ -11960,7 +11973,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>460</v>
       </c>
@@ -11999,7 +12012,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>468</v>
       </c>
@@ -12038,7 +12051,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
         <v>473</v>
       </c>
@@ -12077,7 +12090,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
         <v>479</v>
       </c>
@@ -12116,7 +12129,7 @@
         <v>41858</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
         <v>486</v>
       </c>
@@ -12155,7 +12168,7 @@
         <v>41858</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>491</v>
       </c>
@@ -12194,7 +12207,7 @@
         <v>41863</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
         <v>497</v>
       </c>
@@ -12233,7 +12246,7 @@
         <v>41863</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
         <v>503</v>
       </c>
@@ -12272,7 +12285,7 @@
         <v>41864</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
         <v>510</v>
       </c>
@@ -12307,7 +12320,7 @@
         <v>41886</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
         <v>518</v>
       </c>
@@ -12346,7 +12359,7 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>523</v>
       </c>
@@ -12385,7 +12398,7 @@
         <v>41899</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
         <v>547</v>
       </c>
@@ -12424,7 +12437,7 @@
         <v>41904</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="23" t="s">
         <v>555</v>
       </c>
@@ -12463,7 +12476,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
         <v>561</v>
       </c>
@@ -12502,7 +12515,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="23" t="s">
         <v>567</v>
       </c>
@@ -12541,7 +12554,7 @@
         <v>42292</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>573</v>
       </c>
@@ -12580,7 +12593,7 @@
         <v>42301</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
         <v>579</v>
       </c>
@@ -12619,7 +12632,7 @@
         <v>42301</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>587</v>
       </c>
@@ -12658,7 +12671,7 @@
         <v>42308</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>593</v>
       </c>
@@ -12697,7 +12710,7 @@
         <v>42315</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
         <v>600</v>
       </c>
@@ -12736,7 +12749,7 @@
         <v>42318</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>609</v>
       </c>
@@ -12775,7 +12788,7 @@
         <v>42327</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
         <v>610</v>
       </c>
@@ -12814,7 +12827,7 @@
         <v>42328</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
         <v>611</v>
       </c>
@@ -12853,7 +12866,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
         <v>612</v>
       </c>
@@ -12892,7 +12905,7 @@
         <v>42350</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>613</v>
       </c>
@@ -12931,7 +12944,7 @@
         <v>42354</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="23" t="s">
         <v>614</v>
       </c>
@@ -12970,7 +12983,7 @@
         <v>42354</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
         <v>615</v>
       </c>
@@ -13009,7 +13022,7 @@
         <v>42357</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
         <v>13</v>
       </c>
